--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2627897.546896392</v>
+        <v>2622175.934928506</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>188.5970350096846</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>117.3399053404217</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.82953530753691</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.0044783406141</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>79.91965692568634</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>126.6305324976337</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.6113417665671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>287.0797283914793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>55.84003136202615</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249711</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>34.3144884251702</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.25588147840126</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>77.7711162593064</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>175.5414707707641</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.94023685682428</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>62.40697986446754</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.93693655601749</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>53.69729340033767</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744746</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36001924343181</v>
+        <v>72.33640507852644</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>203.4068132192018</v>
       </c>
       <c r="U40" t="n">
-        <v>266.8382219733527</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>88.22615010992122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.5103646250802</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1970.914677487028</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.914677487028</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5323736931989</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>286.5323736931989</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931989</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931989</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931989</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1245.039635429691</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1245.039635429691</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.039635429691</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1703.566937845283</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>279.3468541648867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>279.3468541648867</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>279.3468541648867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>110.3470539032191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>110.3470539032191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551611</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001575</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216374</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294611</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353393</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.363334276589</v>
+        <v>3482.14211023273</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5111,19 +5111,19 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5132,13 +5132,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.9597618327374</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="C13" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1644.746393431758</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.061905225871</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.400805806507</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1355.400805806507</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.608226662977</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>3070.887536710052</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.852187039507</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4345.626553396684</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>2389.019482279159</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1938.913282793187</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1747.227398620013</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1525.460783189539</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.357916315183</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>981.6734281092956</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>692.256258072335</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>464.2667071743176</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.4741280307875</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>366.7757143850173</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1021.499046520317</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1472.533259768726</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.06516444065</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2985.817436667297</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>880.1664592079843</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C19" t="n">
-        <v>801.6097761177758</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.959038351514</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1100.959038351514</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.1664592079843</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,43 +5731,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>907.902424901197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1772.421240554552</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2750.97154338438</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.3166934139181</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1467.431776491592</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1212.747288285705</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.747288285705</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>984.7577373876879</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>763.9651582441578</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,19 +5992,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780954</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468568</v>
@@ -6068,19 +6068,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,22 +6098,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.3166934139181</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1825.159234259379</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1825.159234259379</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1536.056367385023</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1281.371879179136</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>991.9547091421751</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>763.9651582441578</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>763.9651582441578</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
@@ -6217,61 +6217,61 @@
         <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N26" t="n">
-        <v>2812.369300656583</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
@@ -6299,7 +6299,7 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6308,7 +6308,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320243</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3795.480907275125</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>3626.544724347219</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3476.428084934883</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>4488.948855545364</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>4425.911502146912</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>4425.911502146912</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>4197.921951248895</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>3977.129372105365</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025903</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320243</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3512.714975775669</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>3512.714975775669</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3512.714975775669</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177248</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4466.454649746774</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4466.454649746774</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4211.770161540887</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>3922.352991503926</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>3694.363440605909</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>3694.363440605909</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972659</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.77835475062</v>
       </c>
       <c r="M32" t="n">
-        <v>2707.641918722171</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.420735780953</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6779,22 +6779,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3646.037028578557</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>3477.10084565065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>3477.10084565065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>3329.187752068257</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4723.812032116349</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4532.126147943175</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>4310.359532512701</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>4310.359532512701</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>4055.675044306814</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>4055.675044306814</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3827.685493408797</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3827.685493408797</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,49 +6925,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604875</v>
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7013,28 +7013,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>902.7359155481931</v>
+        <v>781.8112129900678</v>
       </c>
       <c r="C37" t="n">
-        <v>733.7997326202862</v>
+        <v>612.8750300621609</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6830932079505</v>
+        <v>462.7583906498252</v>
       </c>
       <c r="E37" t="n">
-        <v>435.7699996255574</v>
+        <v>314.8452970674321</v>
       </c>
       <c r="F37" t="n">
-        <v>288.880052127647</v>
+        <v>314.8452970674321</v>
       </c>
       <c r="G37" t="n">
-        <v>121.177215502366</v>
+        <v>314.8452970674321</v>
       </c>
       <c r="H37" t="n">
-        <v>121.177215502366</v>
+        <v>168.6281102852898</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M37" t="n">
         <v>1005.387693892251</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.142636483171</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W37" t="n">
-        <v>1130.72546644621</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X37" t="n">
-        <v>902.7359155481931</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y37" t="n">
-        <v>902.7359155481931</v>
+        <v>963.4596778203075</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,64 +7162,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427189</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196073</v>
       </c>
       <c r="M38" t="n">
-        <v>2628.734306600803</v>
+        <v>2337.214217867997</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>3316.966490094644</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,64 +7229,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>730.2297869963112</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M40" t="n">
         <v>1005.387693892251</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1495.124024382689</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1240.439536176802</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>951.0223661398413</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>951.0223661398413</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>730.2297869963112</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7417,46 +7417,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3484.372139114998</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3987.344609994335</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>912.7733348911271</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>743.8371519632202</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1866.513008862232</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1611.828520656345</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1322.411350619384</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1094.421799721367</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1094.421799721367</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.60335981148</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3517.878731871641</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4231.233819318587</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4689.712021827575</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.187565809182</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789529</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7806,13 +7806,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
         <v>1005.387693892251</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384226</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783395</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413789</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>391.8664332433616</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8692,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260145</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>146.0713065388583</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>126.3855966773256</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>83.16722118949235</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>292.5685715191219</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9649,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>374.169394802195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>176.2173930448432</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>246.454569480844</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>205.0727796301203</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400267</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>201.9664098701126</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476868</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>123.4719563470478</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>258.6211785616946</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>89.5245633896194</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>29.61882225792289</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>252.2085099114208</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>71.67627119164608</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>89.47570483932144</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.6703674348488</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>148.8287884746176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>189.7306634593605</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>109.4970260905517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.23485926970966</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.1421360569673</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>70.99240116640627</v>
+        <v>24.01601533131168</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696744</v>
       </c>
       <c r="U40" t="n">
-        <v>19.37361623226019</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>60.38932290829113</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.0742887270146</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>615476.769674823</v>
+      </c>
+      <c r="F2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="G2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="H2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="I2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="L2" t="n">
         <v>615476.7696748239</v>
-      </c>
-      <c r="F2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="G2" t="n">
-        <v>615476.7696748235</v>
-      </c>
-      <c r="H2" t="n">
-        <v>615476.7696748239</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748235</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748236</v>
       </c>
       <c r="M2" t="n">
         <v>615476.7696748237</v>
@@ -26352,10 +26352,10 @@
         <v>615476.7696748236</v>
       </c>
       <c r="O2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="P2" t="n">
         <v>615476.7696748233</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615476.7696748236</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924297</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709186</v>
@@ -26438,7 +26438,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
@@ -26447,19 +26447,19 @@
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709191</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709189</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228726.182025564</v>
+        <v>-228726.1820255641</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889805</v>
+        <v>361241.6971889804</v>
       </c>
       <c r="D6" t="n">
-        <v>361241.6971889804</v>
+        <v>361241.6971889803</v>
       </c>
       <c r="E6" t="n">
-        <v>-229903.7705693885</v>
+        <v>-230575.7254716469</v>
       </c>
       <c r="F6" t="n">
-        <v>497473.6434240185</v>
+        <v>496801.6885217597</v>
       </c>
       <c r="G6" t="n">
-        <v>497473.6434240178</v>
+        <v>496801.6885217599</v>
       </c>
       <c r="H6" t="n">
-        <v>497473.6434240183</v>
+        <v>496801.6885217599</v>
       </c>
       <c r="I6" t="n">
-        <v>497473.643424018</v>
+        <v>496801.6885217602</v>
       </c>
       <c r="J6" t="n">
-        <v>321050.4242314252</v>
+        <v>320378.4693291672</v>
       </c>
       <c r="K6" t="n">
-        <v>497473.6434240183</v>
+        <v>496801.6885217601</v>
       </c>
       <c r="L6" t="n">
-        <v>497473.6434240182</v>
+        <v>496801.6885217608</v>
       </c>
       <c r="M6" t="n">
-        <v>367831.3285850734</v>
+        <v>367159.3736828155</v>
       </c>
       <c r="N6" t="n">
-        <v>497473.6434240181</v>
+        <v>496801.6885217601</v>
       </c>
       <c r="O6" t="n">
-        <v>497473.6434240178</v>
+        <v>496801.6885217596</v>
       </c>
       <c r="P6" t="n">
-        <v>497473.6434240185</v>
+        <v>496801.6885217598</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>520.2256578503742</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>520.2256578503747</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>176.675856761323</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>264.59046473184</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>64.78593771067544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27587,10 +27587,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>129.5185199959769</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>285.3532348453212</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>89.81778786002407</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>5.94099699593491</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.973311585527654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.52067551358147</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.15821026457434</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>79.12559043031212</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026464</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>556.525749281415</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>544.8332927582302</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>809.3543492214183</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>377.179901481045</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>273.9542221582049</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35895,19 +35895,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>629.7598580745224</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36360,7 +36360,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36369,13 +36369,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>926.4712302151065</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>470.4443441954251</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>728.5192284577547</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>798.7564048937555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M32" t="n">
-        <v>743.9938954603471</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282456</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M35" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359057</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N38" t="n">
-        <v>675.7737917599593</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>488.2865496089913</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509642</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>89.23202080014755</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597969</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2622175.934928506</v>
+        <v>2625581.426052956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>117.3399053404217</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>117.3399053404218</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>33.84234274505282</v>
       </c>
       <c r="W4" t="n">
-        <v>157.0044783406141</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249711</v>
+        <v>67.33742371513162</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1818,13 +1818,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380475</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>163.6898441249702</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744746</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.9951719589025</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.33640507852644</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3714,7 +3714,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>203.4068132192018</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4315,13 +4315,13 @@
         <v>1154.883827626212</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>325.9341147347918</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>693.9447996154718</v>
       </c>
       <c r="W4" t="n">
-        <v>569.538602044198</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X4" t="n">
-        <v>569.538602044198</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2708856551153</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2708856551153</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>184.2708856551153</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>184.2708856551153</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551611</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001575</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1002.806306216374</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464783</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294611</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353393</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.14211023273</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679676</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946815</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5144,16 +5144,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5217,34 +5217,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.788099626698</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208113</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838507</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858334</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>260.9043113423032</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5281,25 +5281,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5466,10 +5466,10 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
         <v>1015.408799357142</v>
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,46 +5515,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5767,13 +5767,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,25 +6229,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608906</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814245</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644074</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870721</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6621,13 +6621,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U31" t="n">
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208117</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838512</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858338</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>260.9043113423037</v>
       </c>
     </row>
     <row r="32">
@@ -6679,73 +6679,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074197</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972659</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.77835475062</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="35">
@@ -6922,61 +6922,61 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277727</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.60335981148</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8112129900678</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>612.8750300621609</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>462.7583906498252</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>314.8452970674321</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>314.8452970674321</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>314.8452970674321</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>168.6281102852898</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104703</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898816</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.241807861855</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.252256963838</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.4596778203075</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001586</v>
@@ -7171,40 +7171,40 @@
         <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427189</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196073</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867997</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3316.966490094644</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7244,34 +7244,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
         <v>1005.387693892251</v>
@@ -7347,28 +7347,28 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
         <v>725.9916293201816</v>
@@ -7390,19 +7390,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7417,13 +7417,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7663,31 +7663,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7727,10 +7727,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>219.3344627260145</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>353.7642348290861</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400246</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400276</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570115</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400267</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476868</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>258.6211785616946</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696619</v>
+        <v>112.4945564668057</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>91.26811680410418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>16.14213605696713</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.1421360569673</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>24.01601533131168</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.14213605696744</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="15">
@@ -26316,22 +26316,22 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.769674823</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="F2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="G2" t="n">
         <v>615476.7696748233</v>
       </c>
-      <c r="G2" t="n">
-        <v>615476.7696748234</v>
-      </c>
       <c r="H2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748241</v>
       </c>
       <c r="I2" t="n">
         <v>615476.7696748236</v>
@@ -26340,22 +26340,22 @@
         <v>615476.7696748235</v>
       </c>
       <c r="K2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="L2" t="n">
         <v>615476.7696748235</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>615476.7696748239</v>
       </c>
-      <c r="M2" t="n">
-        <v>615476.7696748237</v>
-      </c>
       <c r="N2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="O2" t="n">
+        <v>615476.7696748232</v>
+      </c>
+      <c r="P2" t="n">
         <v>615476.7696748234</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615476.7696748233</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,13 +26377,13 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.877520041191019e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.6079970918</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709191</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709189</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371363</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228726.1820255641</v>
+        <v>-228726.182025564</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889804</v>
+        <v>361241.6971889806</v>
       </c>
       <c r="D6" t="n">
-        <v>361241.6971889803</v>
+        <v>361241.6971889806</v>
       </c>
       <c r="E6" t="n">
-        <v>-230575.7254716469</v>
+        <v>-229970.966059614</v>
       </c>
       <c r="F6" t="n">
-        <v>496801.6885217597</v>
+        <v>497406.4479337921</v>
       </c>
       <c r="G6" t="n">
-        <v>496801.6885217599</v>
+        <v>497406.4479337923</v>
       </c>
       <c r="H6" t="n">
-        <v>496801.6885217599</v>
+        <v>497406.4479337927</v>
       </c>
       <c r="I6" t="n">
-        <v>496801.6885217602</v>
+        <v>497406.4479337924</v>
       </c>
       <c r="J6" t="n">
-        <v>320378.4693291672</v>
+        <v>320983.2287411994</v>
       </c>
       <c r="K6" t="n">
-        <v>496801.6885217601</v>
+        <v>497406.4479337928</v>
       </c>
       <c r="L6" t="n">
-        <v>496801.6885217608</v>
+        <v>497406.4479337917</v>
       </c>
       <c r="M6" t="n">
-        <v>367159.3736828155</v>
+        <v>367764.1330948477</v>
       </c>
       <c r="N6" t="n">
-        <v>496801.6885217601</v>
+        <v>497406.4479337927</v>
       </c>
       <c r="O6" t="n">
-        <v>496801.6885217596</v>
+        <v>497406.4479337918</v>
       </c>
       <c r="P6" t="n">
-        <v>496801.6885217598</v>
+        <v>497406.4479337921</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>264.59046473184</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.2953005787752</v>
       </c>
       <c r="W4" t="n">
-        <v>129.5185199959769</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>5.94099699593491</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>10.52067551358147</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.02305903212631e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>556.525749281415</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35585,7 +35585,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.957071145109</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789366</v>
@@ -35649,10 +35649,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>809.3543492214183</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>470.4443441954251</v>
+        <v>404.7279243224421</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282465</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427823</v>
+        <v>588.5891319493438</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282456</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359057</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>766.6741794499135</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
